--- a/checkinUser.xlsx
+++ b/checkinUser.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7815"/>
+    <workbookView windowWidth="19890" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -30,10 +30,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -51,39 +51,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,7 +82,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -112,9 +142,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -128,54 +166,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,31 +203,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,145 +353,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,69 +388,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -471,11 +408,74 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,15 +491,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -509,134 +509,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -646,9 +646,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -659,12 +656,12 @@
     <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
     <cellStyle name="Currency" xfId="5" builtinId="4"/>
     <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
     <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
     <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
@@ -1033,17 +1030,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="19.5714285714286" customWidth="1"/>
     <col min="2" max="3" width="30" customWidth="1"/>
-    <col min="5" max="5" width="10.2857142857143"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1073,18 +1069,18 @@
         <v>30</v>
       </c>
       <c r="B3" s="2">
-        <v>0.513888888888889</v>
-      </c>
-      <c r="C3" s="4">
+        <v>0.390277777777778</v>
+      </c>
+      <c r="C3" s="3">
         <v>44709</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2">
-        <v>0.347222222222222</v>
+        <v>0.390972222222222</v>
       </c>
       <c r="C4" s="3">
         <v>44709</v>
@@ -1095,7 +1091,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="2">
-        <v>0.597916666666667</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="C5" s="3">
         <v>44709</v>
@@ -1103,10 +1099,10 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="2">
-        <v>0.430555555555556</v>
+        <v>0.347222222222222</v>
       </c>
       <c r="C6" s="3">
         <v>44709</v>
@@ -1114,10 +1110,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2">
-        <v>0.597222222222222</v>
+        <v>0.347916666666667</v>
       </c>
       <c r="C7" s="3">
         <v>44709</v>
@@ -1125,10 +1121,10 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2">
-        <v>0.347222222222222</v>
+        <v>0.388888888888889</v>
       </c>
       <c r="C8" s="3">
         <v>44709</v>
@@ -1136,10 +1132,10 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="2">
-        <v>0.555555555555556</v>
+        <v>0.430555555555556</v>
       </c>
       <c r="C9" s="3">
         <v>44709</v>
@@ -1150,7 +1146,7 @@
         <v>34</v>
       </c>
       <c r="B10" s="2">
-        <v>0.388888888888889</v>
+        <v>0.472222222222222</v>
       </c>
       <c r="C10" s="3">
         <v>44709</v>
@@ -1161,10 +1157,120 @@
         <v>34</v>
       </c>
       <c r="B11" s="2">
-        <v>0.722222222222222</v>
+        <v>0.513888888888889</v>
       </c>
       <c r="C11" s="3">
         <v>44709</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.389583333333333</v>
+      </c>
+      <c r="C12" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2">
+        <v>0.431944444444444</v>
+      </c>
+      <c r="C13" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>30</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.432638888888889</v>
+      </c>
+      <c r="C14" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>31</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.515277777777778</v>
+      </c>
+      <c r="C15" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>33</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.0555555555555556</v>
+      </c>
+      <c r="C16" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>33</v>
+      </c>
+      <c r="B17" s="2">
+        <v>0.05625</v>
+      </c>
+      <c r="C17" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>0.138888888888889</v>
+      </c>
+      <c r="C18" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>34</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0.180555555555556</v>
+      </c>
+      <c r="C19" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0.222222222222222</v>
+      </c>
+      <c r="C20" s="3">
+        <v>44710</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2">
+        <v>0.763888888888889</v>
+      </c>
+      <c r="C21" s="3">
+        <v>44710</v>
       </c>
     </row>
   </sheetData>
